--- a/src/test/resources/testData/AllCredsLogins_TestData.xlsx
+++ b/src/test/resources/testData/AllCredsLogins_TestData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
   <si>
     <t xml:space="preserve">TC No</t>
   </si>
@@ -96,6 +96,51 @@
   </si>
   <si>
     <t xml:space="preserve">onBoardUser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Username</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ChooseSubject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PhoneNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biography</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Occupation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ConfirmPassword</t>
+  </si>
+  <si>
+    <t xml:space="preserve">faculty123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testFaculty@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bangalore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biography</t>
+  </si>
+  <si>
+    <t xml:space="preserve">occupation</t>
   </si>
 </sst>
 </file>
@@ -199,7 +244,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -213,6 +258,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -387,58 +444,116 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="56.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="31.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="20.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="31.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="18.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="11.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="26.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="11.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="B2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="6" t="n">
+        <v>8956895689</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>23</v>
+      <c r="M2" s="6" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="sampleTestInstitute@gmail.com"/>
+    <hyperlink ref="C2" r:id="rId1" display="sampleTestInstitute@gmail.com"/>
+    <hyperlink ref="G2" r:id="rId2" display="testFaculty@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/src/test/resources/testData/AllCredsLogins_TestData.xlsx
+++ b/src/test/resources/testData/AllCredsLogins_TestData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
   <si>
     <t xml:space="preserve">TC No</t>
   </si>
@@ -38,9 +38,6 @@
     <t xml:space="preserve">password</t>
   </si>
   <si>
-    <t xml:space="preserve">type</t>
-  </si>
-  <si>
     <t xml:space="preserve">Verify able to login as Admin</t>
   </si>
   <si>
@@ -53,9 +50,6 @@
     <t xml:space="preserve">Admin123</t>
   </si>
   <si>
-    <t xml:space="preserve">devUser</t>
-  </si>
-  <si>
     <t xml:space="preserve">Verify able to login as Institute</t>
   </si>
   <si>
@@ -86,43 +80,46 @@
     <t xml:space="preserve">test1@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Verify Able to Login As Institute after Onboarding Registration</t>
+    <t xml:space="preserve">Username</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ChooseSubject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PhoneNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biography</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Occupation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ConfirmPassword</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roleFaculty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">usernameFaculty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">passwordFaculty</t>
   </si>
   <si>
     <t xml:space="preserve">sampleTestInstitute@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">welcome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">onBoardUser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Username</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ChooseSubject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PhoneNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biography</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Occupation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ConfirmPassword</t>
   </si>
   <si>
     <t xml:space="preserve">faculty123</t>
@@ -244,7 +241,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -261,16 +258,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -290,19 +291,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="51.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="31.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="22.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="18.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -321,28 +322,22 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -350,19 +345,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -370,19 +362,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -390,45 +379,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>24</v>
-      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D6" r:id="rId1" display="sampleTestInstitute@gmail.com"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -444,83 +407,95 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:XFC2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="31.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="18.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="11.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="26.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="31.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="23.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="28.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="14.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="18.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="11.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="26.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="17.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="23.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="24.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16382" min="16382" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16383" min="16383" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="K1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="L1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="M1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="N1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="O1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="XFB1" s="5"/>
+      <c r="XFC1" s="0"/>
+    </row>
+    <row r="2" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="2" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>34</v>
@@ -528,11 +503,11 @@
       <c r="F2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="7" t="n">
+        <v>8956895689</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="H2" s="6" t="n">
-        <v>8956895689</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>37</v>
@@ -541,19 +516,28 @@
         <v>38</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="M2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="6" t="s">
         <v>4</v>
       </c>
+      <c r="XFB2" s="1"/>
+      <c r="XFC2" s="0"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="sampleTestInstitute@gmail.com"/>
-    <hyperlink ref="G2" r:id="rId2" display="testFaculty@gmail.com"/>
+    <hyperlink ref="B2" r:id="rId1" display="sampleTestInstitute@gmail.com"/>
+    <hyperlink ref="F2" r:id="rId2" display="testFaculty@gmail.com"/>
+    <hyperlink ref="N2" r:id="rId3" display="testFaculty@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/src/test/resources/testData/AllCredsLogins_TestData.xlsx
+++ b/src/test/resources/testData/AllCredsLogins_TestData.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="AllRoleLogins" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="OnboardingRegisteredInstitute" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="InstituteOnboardFacultyDetails" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="39">
   <si>
     <t xml:space="preserve">TC No</t>
   </si>
@@ -147,7 +148,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -185,6 +186,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -241,7 +248,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -258,7 +265,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -266,12 +277,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -294,7 +309,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -409,8 +424,8 @@
   </sheetPr>
   <dimension ref="A1:XFC2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -419,7 +434,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="31.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="21.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="23.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="28.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.96"/>
@@ -430,108 +445,106 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="17.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="24.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16382" min="16382" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16383" min="16383" style="0" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16382" style="1" width="11.53"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="XFB1" s="5"/>
-      <c r="XFC1" s="0"/>
-    </row>
-    <row r="2" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+      <c r="XFB1" s="6"/>
+      <c r="XFC1" s="1"/>
+    </row>
+    <row r="2" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="7" t="n">
+      <c r="G2" s="8" t="n">
         <v>8956895689</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="6" t="s">
+      <c r="K2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="XFB2" s="1"/>
-      <c r="XFC2" s="0"/>
+      <c r="XFC2" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -547,4 +560,136 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O3" activeCellId="0" sqref="1:1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="24.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="18.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="21.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="22.67"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>8956895689</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="sampleTestInstitute@gmail.com"/>
+    <hyperlink ref="F2" r:id="rId2" display="testFaculty@gmail.com"/>
+    <hyperlink ref="N2" r:id="rId3" display="testFaculty@gmail.com"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/src/test/resources/testData/AllCredsLogins_TestData.xlsx
+++ b/src/test/resources/testData/AllCredsLogins_TestData.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{D594EF8C-5357-4D3B-894E-B483F4D14C65}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15810" windowHeight="3855" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="AllRoleLogins" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="OnboardingRegisteredInstitute" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="InstituteOnboardFacultyDetails" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="AllRoleLogins" sheetId="1" r:id="rId1"/>
+    <sheet name="OnboardingRegisteredInstitute" sheetId="2" r:id="rId2"/>
+    <sheet name="InstituteOnboardFacultyDetails" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <oleSize ref="F1:N14"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -24,131 +25,128 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="39">
   <si>
-    <t xml:space="preserve">TC No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Role</t>
-  </si>
-  <si>
-    <t xml:space="preserve">username</t>
-  </si>
-  <si>
-    <t xml:space="preserve">password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify able to login as Admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hr@snipe.co.in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Admin123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify able to login as Institute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Institute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test2@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">welcome@123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify able to login as Faculty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Faculty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test3@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify able to login as Student</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Student</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test1@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Username</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ChooseSubject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PhoneNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biography</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Occupation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ConfirmPassword</t>
-  </si>
-  <si>
-    <t xml:space="preserve">roleFaculty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">usernameFaculty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">passwordFaculty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sampleTestInstitute@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">welcome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">faculty123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testFaculty@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bangalore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biography</t>
-  </si>
-  <si>
-    <t xml:space="preserve">occupation</t>
+    <t>TC No</t>
+  </si>
+  <si>
+    <t>TC Name</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Verify able to login as Admin</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>hr@snipe.co.in</t>
+  </si>
+  <si>
+    <t>Admin123</t>
+  </si>
+  <si>
+    <t>Verify able to login as Institute</t>
+  </si>
+  <si>
+    <t>Institute</t>
+  </si>
+  <si>
+    <t>test2@gmail.com</t>
+  </si>
+  <si>
+    <t>welcome@123</t>
+  </si>
+  <si>
+    <t>Verify able to login as Faculty</t>
+  </si>
+  <si>
+    <t>Faculty</t>
+  </si>
+  <si>
+    <t>test3@gmail.com</t>
+  </si>
+  <si>
+    <t>Verify able to login as Student</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>test1@gmail.com</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>ChooseSubject</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>PhoneNumber</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Biography</t>
+  </si>
+  <si>
+    <t>Occupation</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>ConfirmPassword</t>
+  </si>
+  <si>
+    <t>roleFaculty</t>
+  </si>
+  <si>
+    <t>usernameFaculty</t>
+  </si>
+  <si>
+    <t>passwordFaculty</t>
+  </si>
+  <si>
+    <t>sampleTestInstitute@gmail.com</t>
+  </si>
+  <si>
+    <t>welcome</t>
+  </si>
+  <si>
+    <t>faculty123</t>
+  </si>
+  <si>
+    <t>Biology</t>
+  </si>
+  <si>
+    <t>testFaculty@gmail.com</t>
+  </si>
+  <si>
+    <t>bangalore</t>
+  </si>
+  <si>
+    <t>biography</t>
+  </si>
+  <si>
+    <t>occupation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -157,22 +155,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -208,120 +191,375 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:XFC5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="1:1048576"/>
+    <sheetView zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="51.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="31.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="22.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
+    <col min="2" max="2" width="51.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" style="1" customWidth="1"/>
+    <col min="16384" max="16384" width="11.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -338,8 +576,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -355,8 +593,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -372,8 +610,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -389,8 +627,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -407,48 +645,40 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:XFC2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="1:1048576"/>
+    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O2" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="31.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="21.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="23.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="28.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="14.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="18.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="11.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="26.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="17.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="23.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="24.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16382" style="1" width="11.53"/>
+    <col min="1" max="1" width="18.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="29" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="26.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="23.140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="24.7109375" style="1" customWidth="1"/>
+    <col min="16382" max="16384" width="11.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:15 16382:16383" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -497,7 +727,7 @@
       <c r="XFB1" s="6"/>
       <c r="XFC1" s="1"/>
     </row>
-    <row r="2" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:15 16382:16383" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
@@ -516,7 +746,7 @@
       <c r="F2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="8" t="n">
+      <c r="G2" s="8">
         <v>8956895689</v>
       </c>
       <c r="H2" s="7" t="s">
@@ -548,47 +778,39 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="sampleTestInstitute@gmail.com"/>
-    <hyperlink ref="F2" r:id="rId2" display="testFaculty@gmail.com"/>
-    <hyperlink ref="N2" r:id="rId3" display="testFaculty@gmail.com"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="N2" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O3" activeCellId="0" sqref="1:1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="24.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="18.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="21.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="22.67"/>
+    <col min="2" max="2" width="33.85546875" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" customWidth="1"/>
+    <col min="14" max="14" width="21.42578125" customWidth="1"/>
+    <col min="15" max="15" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="9" t="s">
@@ -597,7 +819,7 @@
       <c r="D1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>20</v>
       </c>
       <c r="F1" s="9" t="s">
@@ -609,48 +831,48 @@
       <c r="H1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>24</v>
       </c>
       <c r="J1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2">
         <v>8956895689</v>
       </c>
       <c r="H2" s="9" t="s">
@@ -662,16 +884,16 @@
       <c r="J2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="K2" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="L2" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="0" t="s">
+      <c r="M2" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="0" t="s">
+      <c r="N2" t="s">
         <v>35</v>
       </c>
       <c r="O2" s="9" t="s">
@@ -680,14 +902,13 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="sampleTestInstitute@gmail.com"/>
-    <hyperlink ref="F2" r:id="rId2" display="testFaculty@gmail.com"/>
-    <hyperlink ref="N2" r:id="rId3" display="testFaculty@gmail.com"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="N2" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
